--- a/140810200053_Tugas Pertemuan 3.xlsx
+++ b/140810200053_Tugas Pertemuan 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin C M\Documents\UNPAD\Kelas\Semester 5\Kriptografi\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369353F5-C773-42BF-8991-59B052772C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B9686-B4E5-4883-BB5C-30E3BD75DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>ENKRIPSI</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>E(x)mod26</t>
+  </si>
+  <si>
+    <t>Determinan</t>
+  </si>
+  <si>
+    <t>Adj K</t>
+  </si>
+  <si>
+    <t>Adj K mod 26</t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>K-1</t>
   </si>
 </sst>
 </file>
@@ -166,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -217,19 +232,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,17 +304,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,52 +541,52 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -528,30 +599,30 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -561,36 +632,36 @@
       <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f t="shared" ref="G7:L7" si="0">CODE(G6)-65</f>
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>8</v>
       </c>
@@ -600,279 +671,441 @@
       <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="12">
         <f>(B6*G7)+(C6*H7)+(D6*I7)</f>
         <v>57</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>(B7*G7)+(C7*H7)+(D7*I7)</f>
         <v>81</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>(B8*G7)+(C8*H7)+(D8*I7)</f>
         <v>71</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>(B6*J7)+(C6*K7)+(D6*L7)</f>
         <v>110</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>(B7*J7)+(C7*K7)+(D7*L7)</f>
         <v>165</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="19">
         <f>(B8*J7)+(C8*K7)+(D8*L7)</f>
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F9" s="19" t="s">
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="12">
         <f t="shared" ref="G9:L9" si="1">MOD(G8,26)</f>
         <v>5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F10" s="19" t="s">
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="18" t="str">
+      <c r="G10" s="13" t="str">
         <f t="shared" ref="G10:L10" si="2">CHAR(G9+65)</f>
         <v>F</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="J10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="K10" s="6" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3">
+        <f ca="1">B32</f>
         <v>11</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" ref="C14:D14" ca="1" si="3">C32</f>
         <v>0</v>
       </c>
       <c r="D14" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" ref="G14:L14" si="3">G10</f>
+      <c r="G14" s="5" t="str">
+        <f t="shared" ref="G14:L14" si="4">G10</f>
         <v>F</v>
       </c>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="J14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>G</v>
       </c>
-      <c r="K14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>J</v>
       </c>
-      <c r="L14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
+        <f t="shared" ref="B15:D15" ca="1" si="5">B33</f>
         <v>14</v>
       </c>
       <c r="C15" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="D15" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>19</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" ref="G15:L15" si="4">CODE(G14)-65</f>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:L15" si="6">CODE(G14)-65</f>
         <v>5</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="4"/>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="4"/>
+      <c r="I15" s="4">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="4"/>
+      <c r="J15" s="4">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="4"/>
+      <c r="K15" s="4">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="L15" s="5">
-        <f t="shared" si="4"/>
+      <c r="L15" s="4">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
+        <f t="shared" ref="B16:D16" ca="1" si="7">B34</f>
         <v>0</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="D16" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>22</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5">
-        <f>((B14*G15)+(C14*H15)+(D14*I15))</f>
+      <c r="G16" s="4">
+        <f ca="1">((B14*G15)+(C14*H15)+(D14*I15))</f>
         <v>340</v>
       </c>
-      <c r="H16" s="5">
-        <f>((B15*G15)+(C15*H15)+(D15*I15))</f>
+      <c r="H16" s="4">
+        <f ca="1">((B15*G15)+(C15*H15)+(D15*I15))</f>
         <v>494</v>
       </c>
-      <c r="I16" s="5">
-        <f>((B16*G15)+(C16*H15)+(D16*I15))</f>
+      <c r="I16" s="4">
+        <f ca="1">((B16*G15)+(C16*H15)+(D16*I15))</f>
         <v>427</v>
       </c>
-      <c r="J16" s="5">
-        <f>((B14*J15)+(C14*K15)+(D14*L15))</f>
+      <c r="J16" s="4">
+        <f ca="1">((B14*J15)+(C14*K15)+(D14*L15))</f>
         <v>411</v>
       </c>
-      <c r="K16" s="5">
-        <f>((B15*J15)+(C15*K15)+(D15*L15))</f>
+      <c r="K16" s="4">
+        <f ca="1">((B15*J15)+(C15*K15)+(D15*L15))</f>
         <v>710</v>
       </c>
-      <c r="L16" s="5">
-        <f>((B16*J15)+(C16*K15)+(D16*L15))</f>
+      <c r="L16" s="19">
+        <f ca="1">((B16*J15)+(C16*K15)+(D16*L15))</f>
         <v>533</v>
       </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="6:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" ref="G17:L17" si="5">MOD(G16,26)</f>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:L17" ca="1" si="8">MOD(G16,26)</f>
         <v>2</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="5"/>
+      <c r="H17" s="4">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="5"/>
+      <c r="I17" s="4">
+        <f t="shared" ca="1" si="8"/>
         <v>11</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="5"/>
+      <c r="J17" s="4">
+        <f t="shared" ca="1" si="8"/>
         <v>21</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="5"/>
+      <c r="K17" s="4">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="5"/>
+      <c r="L17" s="4">
+        <f t="shared" ca="1" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="6:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F18" s="19" t="s">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:L18" si="6">CHAR(G17+65)</f>
+      <c r="G18" s="7" t="str">
+        <f t="shared" ref="G18:L18" ca="1" si="9">CHAR(G17+65)</f>
         <v>C</v>
       </c>
-      <c r="H18" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="H18" s="7" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>A</v>
       </c>
-      <c r="I18" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="I18" s="7" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>L</v>
       </c>
-      <c r="J18" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="J18" s="7" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>V</v>
       </c>
-      <c r="K18" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="K18" s="7" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>I</v>
       </c>
-      <c r="L18" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="L18" s="7" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>N</v>
       </c>
-      <c r="N18" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <f>MOD((B6*C7*D8)+(C6*D7*B8)+(D6*B7*C8)-(B8*C7*D6)-(C8*D7*B6)-(D8*B7*C6),26)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18">
+        <f ca="1">MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;26))*B21,26),0),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18">
+        <f>(C7*D8)-(C8*D7)</f>
+        <v>-1</v>
+      </c>
+      <c r="C24" s="18">
+        <f>((C6*D8)-(C8*D6))*-1</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <f>(C6*D7)-(C7*D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <f>((B7*D8)-(B8*D7))*-1</f>
+        <v>46</v>
+      </c>
+      <c r="C25" s="18">
+        <f>(B6*D8)-(B8*D6)</f>
+        <v>-35</v>
+      </c>
+      <c r="D25" s="18">
+        <f>((B6*D7)-(B7*D6))*-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <f>(B7*C8)-(B8*C7)</f>
+        <v>-26</v>
+      </c>
+      <c r="C26" s="18">
+        <f>((B6*C8)-(B8*C6))*-1</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="18">
+        <f>(B6*C7)-(B7*C6)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18">
+        <f>MOD(B24,26)</f>
+        <v>25</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" ref="C28:D28" si="10">MOD(C24,26)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18">
+        <f t="shared" ref="B29:D29" si="11">MOD(B25,26)</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18">
+        <f t="shared" ref="B30:D30" si="12">MOD(B26,26)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="18">
+        <f ca="1">MOD((B28*$B22),26)</f>
+        <v>11</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" ref="C32:D32" ca="1" si="13">MOD((C28*$B22),26)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18">
+        <f ca="1">MOD((B29*B$22),26)</f>
+        <v>14</v>
+      </c>
+      <c r="C33" s="18">
+        <f ca="1">MOD((C29*$B22),26)</f>
+        <v>21</v>
+      </c>
+      <c r="D33" s="18">
+        <f ca="1">MOD((D29*$B22),26)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18">
+        <f ca="1">MOD((B30*B$22),26)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <f ca="1">MOD((C30*$B22),26)</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="18">
+        <f ca="1">MOD((D30*$B22),26)</f>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
